--- a/Raj Chudasama/2022-12-08/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-08-22.xlsx
+++ b/Raj Chudasama/2022-12-08/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-08-22.xlsx
@@ -67,7 +67,7 @@
     <t>WHATLEY, KAYLA</t>
   </si>
   <si>
-    <t>132.00</t>
+    <t>89.00</t>
   </si>
   <si>
     <t>25MRYA</t>
@@ -103,7 +103,7 @@
     <t>08-Dec-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07-Dec-22</t>
+    <t>07-Dec-22</t>
   </si>
   <si>
     <t>24-Oct-22</t>
